--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel_sigma_0.025.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel_sigma_0.025.xlsx
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.42182890855457</v>
+        <v>92.27138643067846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1797886299706685</v>
+        <v>0.1852314640690262</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9342182890855458</v>
+        <v>0.9227138643067846</v>
       </c>
       <c r="E2" t="n">
-        <v>0.932413910474587</v>
+        <v>0.9211496377541932</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.99685983442762</v>
+        <v>85.96804470626908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.304829190980369</v>
+        <v>0.3456694628839614</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8699685983442762</v>
+        <v>0.8596804470626909</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8689374484384598</v>
+        <v>0.8583626789666019</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +509,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.27155944255574</v>
+        <v>94.21828908554572</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1977846358338866</v>
+        <v>0.1724121181437416</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9227155944255573</v>
+        <v>0.9421828908554574</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9237385714198885</v>
+        <v>0.9420885834053749</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.14835768475506</v>
+        <v>90.53097345132743</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2992881308620175</v>
+        <v>0.2389851110094848</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9014835768475505</v>
+        <v>0.9053097345132743</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8993558008171563</v>
+        <v>0.902338491692008</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.85350219292555</v>
+        <v>74.68308549381915</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9342730693140766</v>
+        <v>0.7379639688568811</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7485350219292555</v>
+        <v>0.7468308549381915</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7243992956168235</v>
+        <v>0.7242568877305009</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.41121462988434</v>
+        <v>86.38932862741026</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4190019887935098</v>
+        <v>0.4337829454646756</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8641121462988434</v>
+        <v>0.8638932862741028</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8530636775532556</v>
+        <v>0.8540132779335794</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.69911504424779</v>
+        <v>90.0589970501475</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3511725759560553</v>
+        <v>0.2611704978005339</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8769911504424778</v>
+        <v>0.900589970501475</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8743215731523591</v>
+        <v>0.9014636365389268</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.32743362831859</v>
+        <v>90.7669616519174</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2066044337934727</v>
+        <v>0.2381425883737393</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9132743362831859</v>
+        <v>0.907669616519174</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9120677431179948</v>
+        <v>0.9050544240606907</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.1740412979351</v>
+        <v>90.05934307390203</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3059575406853886</v>
+        <v>0.2334331480941425</v>
       </c>
       <c r="D10" t="n">
-        <v>0.891740412979351</v>
+        <v>0.9005934307390202</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8818518105369065</v>
+        <v>0.898781953811668</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.54346490886599</v>
+        <v>85.33940605022535</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4729211795622784</v>
+        <v>0.4155136161072126</v>
       </c>
       <c r="D11" t="n">
-        <v>0.84543464908866</v>
+        <v>0.8533940605022534</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8381691273478745</v>
+        <v>0.8437153214845832</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.44837758112094</v>
+        <v>81.6815889410808</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7368517983812732</v>
+        <v>0.7996756578254766</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8244837758112095</v>
+        <v>0.816815889410808</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8181119701031155</v>
+        <v>0.804463230856036</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.09439528023599</v>
+        <v>81.76991150442478</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5578390425983041</v>
+        <v>0.572252966851617</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8209439528023598</v>
+        <v>0.8176991150442477</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8121810976222685</v>
+        <v>0.8054682293506856</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +699,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>95.07374631268436</v>
+        <v>96.28318584070796</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1177118453478518</v>
+        <v>0.08918232945209942</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9507374631268437</v>
+        <v>0.9628318584070797</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9507159338151533</v>
+        <v>0.9629124632887832</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.0117994100295</v>
+        <v>93.59882005899705</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1487003461420538</v>
+        <v>0.1579318257806032</v>
       </c>
       <c r="D15" t="n">
-        <v>0.940117994100295</v>
+        <v>0.9359882005899705</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9396273296854651</v>
+        <v>0.9353133231347641</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.45722713864306</v>
+        <v>95.04424778761062</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1172813330378631</v>
+        <v>0.128110217253743</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9545722713864306</v>
+        <v>0.9504424778761063</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9531660245553131</v>
+        <v>0.9486697246346317</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.39552821967894</v>
+        <v>88.57757131693758</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3566670494172712</v>
+        <v>0.3339638611977959</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8839552821967893</v>
+        <v>0.8857757131693756</v>
       </c>
       <c r="E17" t="n">
-        <v>0.878808087617108</v>
+        <v>0.8805367909762019</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.10619469026548</v>
+        <v>86.8141592920354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4116821279400028</v>
+        <v>0.3576058208798106</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8610619469026549</v>
+        <v>0.868141592920354</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8553874340407883</v>
+        <v>0.8670048481159226</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.16220728553014</v>
+        <v>79.01279422832377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4694886697310722</v>
+        <v>0.606189087049764</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8116220728553015</v>
+        <v>0.7901279422832378</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8054225290438101</v>
+        <v>0.7709915695678029</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.43432036609313</v>
+        <v>89.68070658050675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2978339364291363</v>
+        <v>0.2877861657073179</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8743432036609313</v>
+        <v>0.8968070658050674</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8731326415663965</v>
+        <v>0.8970478395557553</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +878,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79.17871261862128</v>
+        <v>84.60523014904973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5995299535670104</v>
+        <v>0.3892629832184563</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7917871261862126</v>
+        <v>0.8460523014904974</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7895287101020626</v>
+        <v>0.841020600061435</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.28865301602954</v>
+        <v>63.89250772065502</v>
       </c>
       <c r="C6" t="n">
-        <v>1.108584622604151</v>
+        <v>1.301346630839786</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6828865301602954</v>
+        <v>0.6389250772065502</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6629772217311122</v>
+        <v>0.5955689371682038</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.63330132613603</v>
+        <v>80.60398446353342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6083231047261506</v>
+        <v>0.5762949739738057</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7963330132613604</v>
+        <v>0.8060398446353343</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7893011502026676</v>
+        <v>0.7950575973141112</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +935,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.53162224586717</v>
+        <v>79.17715551172589</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5962920395657421</v>
+        <v>0.5466416670630376</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7553162224586718</v>
+        <v>0.7917715551172588</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7587080592779895</v>
+        <v>0.7869445785439705</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.5240097232675</v>
+        <v>80.15372105295029</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7034601392200178</v>
+        <v>0.5502818619812995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.755240097232675</v>
+        <v>0.8015372105295029</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7479045561973944</v>
+        <v>0.7950295804590859</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +973,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.56722809020839</v>
+        <v>86.58145831711347</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4917297629329066</v>
+        <v>0.3442180325820421</v>
       </c>
       <c r="D10" t="n">
-        <v>0.815672280902084</v>
+        <v>0.8658145831711348</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8086553877409139</v>
+        <v>0.8662392552260576</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +992,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.3685499009507</v>
+        <v>84.78031816884229</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4169086578377271</v>
+        <v>0.4080564083871043</v>
       </c>
       <c r="D11" t="n">
-        <v>0.843685499009507</v>
+        <v>0.8478031816884229</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8344866258737627</v>
+        <v>0.8447945496120797</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.88790560471976</v>
+        <v>77.0407183453144</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6240049257670762</v>
+        <v>0.8621354925096967</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8188790560471976</v>
+        <v>0.7704071834531441</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8076944798421053</v>
+        <v>0.7648439905976325</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.41452780733398</v>
+        <v>79.91358056730596</v>
       </c>
       <c r="C13" t="n">
-        <v>0.682555294855168</v>
+        <v>0.6398566618251303</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7941452780733398</v>
+        <v>0.7991358056730594</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7804932859977407</v>
+        <v>0.7882832586429307</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.26843657817109</v>
+        <v>90.64896755162242</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2902483448046648</v>
+        <v>0.2771297967268765</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9126843657817109</v>
+        <v>0.9064896755162242</v>
       </c>
       <c r="E14" t="n">
-        <v>0.91255060641709</v>
+        <v>0.9070460807247217</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1068,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.44542772861357</v>
+        <v>89.08571873459114</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2359431516423987</v>
+        <v>0.3210432686900125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9144542772861357</v>
+        <v>0.8908571873459113</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9122649517864062</v>
+        <v>0.8763282177884835</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1087,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.58215901521639</v>
+        <v>92.18375591484354</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07208825423188804</v>
+        <v>0.2103822237561871</v>
       </c>
       <c r="D16" t="n">
-        <v>0.975821590152164</v>
+        <v>0.9218375591484355</v>
       </c>
       <c r="E16" t="n">
-        <v>0.975662423527098</v>
+        <v>0.9131854572558391</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1106,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.69288373313495</v>
+        <v>82.94498510656089</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5072448657236742</v>
+        <v>0.5118820716793553</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8269288373313495</v>
+        <v>0.8294498510656091</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8209446708898226</v>
+        <v>0.8206257573756022</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1171,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.29647315288194</v>
+        <v>75.38257251360305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6435378497466445</v>
+        <v>0.672990358558794</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7229647315288195</v>
+        <v>0.7538257251360306</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7162229569482738</v>
+        <v>0.7469563408676622</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1190,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.71566363030822</v>
+        <v>71.15052898381474</v>
       </c>
       <c r="C3" t="n">
-        <v>1.02302496060729</v>
+        <v>0.6987517317136129</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6071566363030823</v>
+        <v>0.7115052898381473</v>
       </c>
       <c r="E3" t="n">
-        <v>0.592012629257189</v>
+        <v>0.7073940718050369</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.4441733925034</v>
+        <v>79.42127527054733</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5627387179682652</v>
+        <v>0.5585673762485385</v>
       </c>
       <c r="D4" t="n">
-        <v>0.764441733925034</v>
+        <v>0.7942127527054732</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7620281281925004</v>
+        <v>0.7925949884725563</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1228,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.69795586467011</v>
+        <v>67.79046531544391</v>
       </c>
       <c r="C5" t="n">
-        <v>1.400621791960051</v>
+        <v>0.943364204838872</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6369795586467011</v>
+        <v>0.677904653154439</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5899682367566969</v>
+        <v>0.6755697498765028</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1247,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.40158651891452</v>
+        <v>66.07159231481242</v>
       </c>
       <c r="C6" t="n">
-        <v>1.221321614831686</v>
+        <v>1.087114572587113</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6340158651891452</v>
+        <v>0.6607159231481241</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5979230049068406</v>
+        <v>0.6350003517204121</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1266,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.72276576786996</v>
+        <v>79.52274673656346</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8043557633645833</v>
+        <v>0.7236409482546151</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7172276576786997</v>
+        <v>0.7952274673656347</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7116013451287346</v>
+        <v>0.7797707360348867</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1285,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.64613880742912</v>
+        <v>68.96158271265321</v>
       </c>
       <c r="C8" t="n">
-        <v>1.028103901135425</v>
+        <v>0.8105421972402838</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6364613880742913</v>
+        <v>0.6896158271265322</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6105540538468572</v>
+        <v>0.6878049790985697</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1304,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.76008442979611</v>
+        <v>68.61919220754505</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8538533374667168</v>
+        <v>0.8870224364257109</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6576008442979611</v>
+        <v>0.6861919220754504</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6516721107725757</v>
+        <v>0.6785726208897433</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.28835024524435</v>
+        <v>77.26649884514572</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6625659607350827</v>
+        <v>0.5409859148164591</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7328835024524434</v>
+        <v>0.7726649884514571</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7286388352018532</v>
+        <v>0.7704047593499266</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>73.22295175563802</v>
+        <v>80.48495229197485</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6488038450363092</v>
+        <v>0.4656342884525657</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7322295175563802</v>
+        <v>0.8048495229197485</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7274352817104831</v>
+        <v>0.8017775420777881</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70.79516258791166</v>
+        <v>68.78580264535159</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7926693738438189</v>
+        <v>1.028481121158741</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7079516258791166</v>
+        <v>0.687858026453516</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7046611601396178</v>
+        <v>0.669560771549683</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.16892014636804</v>
+        <v>72.58090467910623</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9008659996247539</v>
+        <v>0.7880114531765382</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6716892014636805</v>
+        <v>0.7258090467910622</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6585382533265622</v>
+        <v>0.7198809864091661</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1399,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.61320599659166</v>
+        <v>90.73780915059818</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3613394567432503</v>
+        <v>0.2512475854406754</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8661320599659167</v>
+        <v>0.9073780915059819</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8644258246904272</v>
+        <v>0.9084042786560463</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1418,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85.49779842386179</v>
+        <v>82.65850050605974</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3617017771228954</v>
+        <v>0.5615881881378451</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8549779842386179</v>
+        <v>0.8265850050605975</v>
       </c>
       <c r="E15" t="n">
-        <v>0.851313482728664</v>
+        <v>0.8092417387303336</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.46500402252614</v>
+        <v>95.6994437668146</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1674712332067429</v>
+        <v>0.1327075911452994</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9446500402252613</v>
+        <v>0.9569944376681458</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9448485831114948</v>
+        <v>0.9566013603681182</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>72.582415649501</v>
+        <v>76.34225786266894</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7621983722262343</v>
+        <v>0.676709997879711</v>
       </c>
       <c r="D17" t="n">
-        <v>0.72582415649501</v>
+        <v>0.7634225786266893</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7141229257812515</v>
+        <v>0.7559690183937622</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1521,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.77116584053496</v>
+        <v>54.41439804842603</v>
       </c>
       <c r="C2" t="n">
-        <v>1.075399356087049</v>
+        <v>1.070698747535547</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5677116584053495</v>
+        <v>0.5441439804842603</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5539402927040812</v>
+        <v>0.533011610610085</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.83850206316664</v>
+        <v>59.98581302606424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8281008241077265</v>
+        <v>0.869078379869461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6083850206316663</v>
+        <v>0.5998581302606424</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5809473079413057</v>
+        <v>0.5776195122858567</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1559,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.89215304630663</v>
+        <v>63.8366248842983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8866627718011537</v>
+        <v>0.8621502240498862</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6289215304630662</v>
+        <v>0.6383662488429831</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6175063681139544</v>
+        <v>0.6265719609134817</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.24607479303454</v>
+        <v>56.77185788804402</v>
       </c>
       <c r="C5" t="n">
-        <v>1.072747432192167</v>
+        <v>1.029788214961688</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5624607479303455</v>
+        <v>0.5677185788804401</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5440577429021125</v>
+        <v>0.5477701837065756</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.54018633379182</v>
+        <v>61.90114101333056</v>
       </c>
       <c r="C6" t="n">
-        <v>1.098427388599763</v>
+        <v>1.103211135230958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5554018633379181</v>
+        <v>0.6190114101333057</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5047032908306662</v>
+        <v>0.58332990259642</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.6037076445298</v>
+        <v>54.14372096644435</v>
       </c>
       <c r="C7" t="n">
-        <v>1.046627976497014</v>
+        <v>1.122259022916357</v>
       </c>
       <c r="D7" t="n">
-        <v>0.586037076445298</v>
+        <v>0.5414372096644435</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5727892608586117</v>
+        <v>0.5176831721791362</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1635,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.87903009541605</v>
+        <v>41.6341836867101</v>
       </c>
       <c r="C8" t="n">
-        <v>1.270054432749748</v>
+        <v>1.544891860087713</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4587903009541606</v>
+        <v>0.4163418368671009</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4262883273844132</v>
+        <v>0.3809009558400128</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.52317061566276</v>
+        <v>51.56048062699504</v>
       </c>
       <c r="C9" t="n">
-        <v>1.1449491639932</v>
+        <v>1.267143394052982</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4852317061566277</v>
+        <v>0.5156048062699504</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4621543547328512</v>
+        <v>0.4965922412655979</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.34032301317485</v>
+        <v>52.56343047950241</v>
       </c>
       <c r="C10" t="n">
-        <v>1.071095819274585</v>
+        <v>1.179251272479693</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5134032301317485</v>
+        <v>0.5256343047950243</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4974162742510847</v>
+        <v>0.5043106852395487</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1692,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.84386543136186</v>
+        <v>57.42428567721174</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9340127577384314</v>
+        <v>0.935933310786883</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6084386543136187</v>
+        <v>0.5742428567721174</v>
       </c>
       <c r="E11" t="n">
-        <v>0.595707290616128</v>
+        <v>0.5669581701860317</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54.65851780724747</v>
+        <v>52.59119888580351</v>
       </c>
       <c r="C12" t="n">
-        <v>1.097347528735797</v>
+        <v>1.131075205157201</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5465851780724746</v>
+        <v>0.525911988858035</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5329698784641018</v>
+        <v>0.5047777904826047</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1730,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.75673664997102</v>
+        <v>54.00816616060693</v>
       </c>
       <c r="C13" t="n">
-        <v>1.120347785949707</v>
+        <v>1.004716372489929</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4875673664997102</v>
+        <v>0.5400816616060693</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4585582545647091</v>
+        <v>0.5294307508442612</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1749,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74.39259855189059</v>
+        <v>73.18834938018496</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6064485713839531</v>
+        <v>0.6555944512287776</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7439259855189059</v>
+        <v>0.7318834938018495</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7362566579548926</v>
+        <v>0.7241024129594738</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1768,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.22500194638363</v>
+        <v>77.02471474666736</v>
       </c>
       <c r="C15" t="n">
-        <v>0.449907949147746</v>
+        <v>0.5045940636819675</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8022500194638361</v>
+        <v>0.7702471474666737</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7988714285744778</v>
+        <v>0.7656352323325688</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1787,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.96333878320748</v>
+        <v>88.81080286161645</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2375272434204817</v>
+        <v>0.3023116680483023</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9196333878320747</v>
+        <v>0.8881080286161644</v>
       </c>
       <c r="E16" t="n">
-        <v>0.919737476573656</v>
+        <v>0.8886554766133438</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1806,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.498291507712</v>
+        <v>59.99061122212706</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9293104667785683</v>
+        <v>0.9721798215051562</v>
       </c>
       <c r="D17" t="n">
-        <v>0.60498291507712</v>
+        <v>0.5999061122212707</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5867936137644697</v>
+        <v>0.5831566705369998</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1871,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.52454606008703</v>
+        <v>43.30123963010061</v>
       </c>
       <c r="C2" t="n">
-        <v>1.467498530944189</v>
+        <v>1.481308170656363</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4752454606008703</v>
+        <v>0.4330123963010061</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4507986489645357</v>
+        <v>0.3946321872384576</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1890,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.71421033053919</v>
+        <v>48.26754556700318</v>
       </c>
       <c r="C3" t="n">
-        <v>1.275148953994115</v>
+        <v>1.072249297300975</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5271421033053919</v>
+        <v>0.4826754556700317</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4896600553927734</v>
+        <v>0.4615829076951735</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1909,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.86061298108115</v>
+        <v>55.05713717246689</v>
       </c>
       <c r="C4" t="n">
-        <v>2.152104083378799</v>
+        <v>1.133546428630749</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4686061298108116</v>
+        <v>0.5505713717246689</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3839678453590791</v>
+        <v>0.5158441545235525</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1928,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.08219794288878</v>
+        <v>49.00864194326941</v>
       </c>
       <c r="C5" t="n">
-        <v>2.085515509980421</v>
+        <v>1.444620810945829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4208219794288878</v>
+        <v>0.490086419432694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3431501982127915</v>
+        <v>0.4305610261547663</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1947,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.08070139015043</v>
+        <v>53.76837169871711</v>
       </c>
       <c r="C6" t="n">
-        <v>1.645994011809429</v>
+        <v>1.716967022768222</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4908070139015043</v>
+        <v>0.5376837169871711</v>
       </c>
       <c r="E6" t="n">
-        <v>0.435301138157703</v>
+        <v>0.495652051071529</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1966,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.0970077595827</v>
+        <v>48.09090044031522</v>
       </c>
       <c r="C7" t="n">
-        <v>1.507876376559337</v>
+        <v>1.322079714139303</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5409700775958269</v>
+        <v>0.4809090044031523</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4900655767024052</v>
+        <v>0.4424330884313767</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1985,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.39401724928416</v>
+        <v>33.63800724919766</v>
       </c>
       <c r="C8" t="n">
-        <v>1.492884734272957</v>
+        <v>1.53829667220513</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3839401724928416</v>
+        <v>0.3363800724919766</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3122551405745183</v>
+        <v>0.2953707399158188</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2004,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.41729599737022</v>
+        <v>43.4584209205962</v>
       </c>
       <c r="C9" t="n">
-        <v>1.45317535623908</v>
+        <v>1.449122185011705</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3941729599737022</v>
+        <v>0.434584209205962</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3386418115958846</v>
+        <v>0.4066661540729659</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2023,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.06371162380297</v>
+        <v>46.06925665446933</v>
       </c>
       <c r="C10" t="n">
-        <v>1.333336831132571</v>
+        <v>1.749666775887211</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4506371162380297</v>
+        <v>0.4606925665446934</v>
       </c>
       <c r="E10" t="n">
-        <v>0.416856447132515</v>
+        <v>0.3881752759603414</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2042,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.43815257917456</v>
+        <v>47.82662479779237</v>
       </c>
       <c r="C11" t="n">
-        <v>1.116720226407051</v>
+        <v>1.258754521608353</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5043815257917456</v>
+        <v>0.4782662479779237</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4919782215082885</v>
+        <v>0.4409533110205984</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2061,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.82388255953772</v>
+        <v>48.15370375176256</v>
       </c>
       <c r="C12" t="n">
-        <v>1.331252455463012</v>
+        <v>1.293941244482994</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5082388255953771</v>
+        <v>0.4815370375176256</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4740458502620767</v>
+        <v>0.4659025532763608</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.88146091229163</v>
+        <v>45.666138980441</v>
       </c>
       <c r="C13" t="n">
-        <v>1.175859674811363</v>
+        <v>1.27491176823775</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4688146091229163</v>
+        <v>0.4566613898044101</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4313396264074975</v>
+        <v>0.4061006179801538</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2099,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>69.82707462867326</v>
+        <v>47.12281248107682</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8790366124982635</v>
+        <v>1.664683939144015</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6982707462867326</v>
+        <v>0.4712281248107683</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6873986320072847</v>
+        <v>0.4091267668548171</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2118,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.62670957361222</v>
+        <v>76.51804946409571</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4970649250550195</v>
+        <v>0.5663590969517827</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7762670957361223</v>
+        <v>0.7651804946409572</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7740752944000445</v>
+        <v>0.760401652928995</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2137,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.85832922430124</v>
+        <v>69.04635853251327</v>
       </c>
       <c r="C16" t="n">
-        <v>1.870573252544947</v>
+        <v>1.023482558627923</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6285832922430125</v>
+        <v>0.6904635853251326</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5627565551107528</v>
+        <v>0.6716011024703237</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2156,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>51.57932738749182</v>
+        <v>50.33288061892116</v>
       </c>
       <c r="C17" t="n">
-        <v>1.41893610233937</v>
+        <v>1.33266601377322</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5157932738749182</v>
+        <v>0.5033288061892116</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4721527361192101</v>
+        <v>0.4656669059730154</v>
       </c>
     </row>
   </sheetData>
